--- a/data/trans_dic/P25C$productsfarma_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25C$productsfarma_2023-Dificultad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.02580253084929423</v>
+        <v>0.02580253084929422</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.02186432656908494</v>
+        <v>0.02186432656908495</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.02435304780546302</v>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007695754489251076</v>
+        <v>0.007666235548202666</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09162146662953802</v>
+        <v>0.09012806065983073</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07060205392358632</v>
+        <v>0.07463174525588497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06818361497755669</v>
+        <v>0.06249999243778794</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.02224913553991846</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.03072974675978133</v>
+        <v>0.03072974675978134</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01260765216070867</v>
+        <v>0.01096075468076569</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006334280571579422</v>
+        <v>0.006224139082080556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01359437912719415</v>
+        <v>0.01258220230795693</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09440705268916866</v>
+        <v>0.08832932457203041</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06182769175399684</v>
+        <v>0.06504273841350397</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07213599223316121</v>
+        <v>0.06530780897345471</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.03901501708239839</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.03549129949514765</v>
+        <v>0.03549129949514764</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01375933358711471</v>
+        <v>0.01328478280466822</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0145589096634736</v>
+        <v>0.01660164234070076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01865326165220181</v>
+        <v>0.01959559871506146</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07814039232292121</v>
+        <v>0.07474345238917569</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08280399197394223</v>
+        <v>0.08009155413054364</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06147702561668083</v>
+        <v>0.06577934044963801</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02572492789370431</v>
+        <v>0.0248366904463126</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01197922252999251</v>
+        <v>0.01448297415912499</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02510430365052371</v>
+        <v>0.02514161472331714</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09317038111460904</v>
+        <v>0.09328565173452029</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08650421563110332</v>
+        <v>0.0860225187956591</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07368943723670791</v>
+        <v>0.07869810015430351</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.03729498517143256</v>
+        <v>0.03729498517143257</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.03182031610541993</v>
+        <v>0.03182031610541992</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03534859073433494</v>
+        <v>0.03534859073433493</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02389939353286679</v>
+        <v>0.02393137306750177</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01944327371505956</v>
+        <v>0.01854826636031141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02525962352904727</v>
+        <v>0.02564702480102934</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05699044826226538</v>
+        <v>0.05681486883186853</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05220070505902336</v>
+        <v>0.05123606135108787</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04887650378154062</v>
+        <v>0.05171753487488471</v>
       </c>
     </row>
     <row r="19">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8034</v>
+        <v>7904</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3606</v>
+        <v>3812</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9461</v>
+        <v>8673</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2450</v>
+        <v>2130</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3835</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18345</v>
+        <v>17164</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5426</v>
+        <v>5708</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20348</v>
+        <v>18422</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2289</v>
+        <v>2210</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1336</v>
+        <v>1523</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4814</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12999</v>
+        <v>12434</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7597</v>
+        <v>7348</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15867</v>
+        <v>16978</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5317</v>
+        <v>5133</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1567</v>
+        <v>1894</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8472</v>
+        <v>8484</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19256</v>
+        <v>19280</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11313</v>
+        <v>11250</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24867</v>
+        <v>26557</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>15655</v>
+        <v>15676</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7026</v>
+        <v>6703</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>25674</v>
+        <v>26068</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>37331</v>
+        <v>37216</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18863</v>
+        <v>18515</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>49678</v>
+        <v>52566</v>
       </c>
     </row>
     <row r="24">
